--- a/biology/Mycologie/Systema_Mycologicum/Systema_Mycologicum.xlsx
+++ b/biology/Mycologie/Systema_Mycologicum/Systema_Mycologicum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Systema Mycologicum est un ouvrage en trois volumes, écrit par le mycologue suédois, Elias Magnus Fries (1794-1878). Il a été pris comme point de départ de la nomenclature mycologique. Il a fallu 11 ans de travail pour le finaliser.
-Le nom complet est Systema mycologicum : sistens fungorum ordines, genera et species, huc usque cognitas, quas ad normam methodi naturalis determinavit, disposuit atque descripsit et son abréviation est Syst. Mycol.[1].
+Le nom complet est Systema mycologicum : sistens fungorum ordines, genera et species, huc usque cognitas, quas ad normam methodi naturalis determinavit, disposuit atque descripsit et son abréviation est Syst. Mycol..
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Informations générales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le premier volume de l'œuvre, qui se composait de 520 pages, a été publié en décembre 1820 ou janvier 1821 à Lund. Conformément à l'article 13 du code international de nomenclature botanique, la date de publication est le 1er janvier 1821. La première partie du second volume (page 1-274) a été publiée en 1822, et la deuxième partie du second volume (pages 275 à 620) en 1823. Le troisième volume également composé de deux parties a été publié à Greifswald en 1829 (page 1-259) et 1832 (pages 261-524).
 </t>
@@ -544,7 +558,9 @@
           <t>Les éditions ultérieures</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1952, Albert John Stevenson et David Philip Rogers à New York ont publié un fac-similé avec une introduction de Rogers.
 </t>
